--- a/artfynd/A 24134-2025 artfynd.xlsx
+++ b/artfynd/A 24134-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130890337</v>
       </c>
       <c r="B2" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>130894264</v>
       </c>
       <c r="B3" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>130894268</v>
       </c>
       <c r="B4" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>130894266</v>
       </c>
       <c r="B5" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>130890330</v>
       </c>
       <c r="B6" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>130892583</v>
       </c>
       <c r="B7" t="n">
-        <v>98898</v>
+        <v>98902</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>130890342</v>
       </c>
       <c r="B8" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         <v>130894284</v>
       </c>
       <c r="B9" t="n">
-        <v>92175</v>
+        <v>92179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>130890339</v>
       </c>
       <c r="B10" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1590,32 +1590,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130894267</v>
+        <v>130894306</v>
       </c>
       <c r="B11" t="n">
-        <v>91804</v>
+        <v>91771</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>799039</v>
+        <v>799129</v>
       </c>
       <c r="R11" t="n">
-        <v>7351523</v>
+        <v>7351628</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1690,32 +1690,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130894306</v>
+        <v>130894267</v>
       </c>
       <c r="B12" t="n">
-        <v>91767</v>
+        <v>91808</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>799129</v>
+        <v>799039</v>
       </c>
       <c r="R12" t="n">
-        <v>7351628</v>
+        <v>7351523</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 24134-2025 artfynd.xlsx
+++ b/artfynd/A 24134-2025 artfynd.xlsx
@@ -1590,32 +1590,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130894306</v>
+        <v>130894267</v>
       </c>
       <c r="B11" t="n">
-        <v>91771</v>
+        <v>91808</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1628,10 +1628,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>799129</v>
+        <v>799039</v>
       </c>
       <c r="R11" t="n">
-        <v>7351628</v>
+        <v>7351523</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1690,32 +1690,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130894267</v>
+        <v>130894306</v>
       </c>
       <c r="B12" t="n">
-        <v>91808</v>
+        <v>91771</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>799039</v>
+        <v>799129</v>
       </c>
       <c r="R12" t="n">
-        <v>7351523</v>
+        <v>7351628</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
